--- a/Configuration/list_of_indicators.xlsx
+++ b/Configuration/list_of_indicators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chalida\Downloads\AMASS2\AMASS2.0\Configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chalida\Documents\AMASSv2.0.16_20221020\AMASSv2.0\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15738B2E-4734-4625-B770-69B18F5204B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEDC6FE-062F-4CD1-9297-F21712943C6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730" xr2:uid="{81871E24-CB43-42EF-A283-4D26D7826474}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$281</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$280</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="169">
   <si>
     <t>High</t>
   </si>
@@ -306,9 +306,6 @@
     <t>organism_pseudoclavibacter_spp</t>
   </si>
   <si>
-    <t>organism_staphylococcus_spp; except staphylococcus_aureus, staphylococcus_ludunensis</t>
-  </si>
-  <si>
     <t>organism_trueperella_spp</t>
   </si>
   <si>
@@ -504,9 +501,6 @@
     <t>organism_raoultella_spp</t>
   </si>
   <si>
-    <t>organism_viridans_group_streptococci</t>
-  </si>
-  <si>
     <t>3GC</t>
   </si>
   <si>
@@ -532,6 +526,15 @@
   </si>
   <si>
     <t>This isolate exhibits discordant AST results.</t>
+  </si>
+  <si>
+    <t>EUCAST2022</t>
+  </si>
+  <si>
+    <t>organism_viridans_group_streptococci; including  streptococcus_anginosus, streptococcus_bovis, streptococcus_constellatus, streptococcus_gallolyticus, streptococcus_gordonii, streptococcus_intermedius, streptococcus_mitis, streptococcus_mutans, streptococcus_oralis, streptococcus_salivarius, streptococcus_sanguinis, streptococcus_vestibularis</t>
+  </si>
+  <si>
+    <t>organism_staphylococcus_spp; except staphylococcus_aureus, staphylococcus_lugdunensis</t>
   </si>
 </sst>
 </file>
@@ -991,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36375496-FBB1-4FD5-AC68-CC712387708E}">
-  <dimension ref="A1:F652"/>
+  <dimension ref="A1:F651"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="278" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203:A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1036,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -1049,49 +1052,49 @@
         <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>37</v>
@@ -1100,10 +1103,10 @@
         <v>38</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>2</v>
@@ -1134,7 +1137,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -1154,7 +1157,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -1174,7 +1177,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
@@ -1194,7 +1197,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -1214,7 +1217,7 @@
         <v>71</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="10">
         <v>1</v>
@@ -1234,7 +1237,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -1254,7 +1257,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
@@ -1271,10 +1274,10 @@
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="10">
         <v>1</v>
@@ -1294,7 +1297,7 @@
         <v>74</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
@@ -1314,7 +1317,7 @@
         <v>75</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="10">
         <v>1</v>
@@ -1334,7 +1337,7 @@
         <v>76</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
@@ -1354,7 +1357,7 @@
         <v>77</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="10">
         <v>1</v>
@@ -1374,7 +1377,7 @@
         <v>78</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="10">
         <v>1</v>
@@ -1394,7 +1397,7 @@
         <v>79</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="10">
         <v>1</v>
@@ -1414,7 +1417,7 @@
         <v>80</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="10">
         <v>1</v>
@@ -1434,7 +1437,7 @@
         <v>81</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="10">
         <v>1</v>
@@ -1454,7 +1457,7 @@
         <v>82</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="10">
         <v>1</v>
@@ -1474,7 +1477,7 @@
         <v>83</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="10">
         <v>1</v>
@@ -1494,7 +1497,7 @@
         <v>84</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="10">
         <v>1</v>
@@ -1514,7 +1517,7 @@
         <v>85</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="10">
         <v>1</v>
@@ -1534,7 +1537,7 @@
         <v>86</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="10">
         <v>1</v>
@@ -1554,7 +1557,7 @@
         <v>87</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="10">
         <v>1</v>
@@ -1574,7 +1577,7 @@
         <v>88</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="10">
         <v>1</v>
@@ -1594,7 +1597,7 @@
         <v>89</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="10">
         <v>1</v>
@@ -1614,7 +1617,7 @@
         <v>90</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="10">
         <v>1</v>
@@ -1634,7 +1637,7 @@
         <v>91</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="10">
         <v>1</v>
@@ -1651,10 +1654,10 @@
     </row>
     <row r="34" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="10">
         <v>1</v>
@@ -1671,10 +1674,10 @@
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" s="10">
         <v>1</v>
@@ -1691,10 +1694,10 @@
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="10">
         <v>1</v>
@@ -1709,12 +1712,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>158</v>
+    <row r="37" spans="1:6" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="10">
         <v>1</v>
@@ -1725,14 +1728,16 @@
       <c r="E37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="20"/>
+      <c r="F37" s="20" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="38" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="10">
         <v>1</v>
@@ -1747,19 +1752,19 @@
     </row>
     <row r="39" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>2</v>
@@ -1776,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>18</v>
@@ -1796,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>18</v>
@@ -1807,7 +1812,7 @@
     </row>
     <row r="42" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>20</v>
@@ -1816,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>18</v>
@@ -1827,16 +1832,16 @@
     </row>
     <row r="43" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C43" s="10">
         <v>2</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>18</v>
@@ -1847,7 +1852,7 @@
     </row>
     <row r="44" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>24</v>
@@ -1867,7 +1872,7 @@
     </row>
     <row r="45" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>24</v>
@@ -1887,10 +1892,10 @@
     </row>
     <row r="46" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="10">
         <v>2</v>
@@ -1907,10 +1912,10 @@
     </row>
     <row r="47" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" s="10">
         <v>2</v>
@@ -1927,7 +1932,7 @@
     </row>
     <row r="48" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>21</v>
@@ -1947,7 +1952,7 @@
     </row>
     <row r="49" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>21</v>
@@ -1967,10 +1972,10 @@
     </row>
     <row r="50" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C50" s="10">
         <v>2</v>
@@ -1987,7 +1992,7 @@
     </row>
     <row r="51" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>21</v>
@@ -2007,7 +2012,7 @@
     </row>
     <row r="52" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>23</v>
@@ -2027,7 +2032,7 @@
     </row>
     <row r="53" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>28</v>
@@ -2047,7 +2052,7 @@
     </row>
     <row r="54" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>21</v>
@@ -2067,19 +2072,19 @@
     </row>
     <row r="55" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>2</v>
@@ -2087,13 +2092,13 @@
     </row>
     <row r="56" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>1</v>
@@ -2107,13 +2112,13 @@
     </row>
     <row r="57" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>1</v>
@@ -2127,13 +2132,13 @@
     </row>
     <row r="58" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>1</v>
@@ -2147,13 +2152,13 @@
     </row>
     <row r="59" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>1</v>
@@ -2167,13 +2172,13 @@
     </row>
     <row r="60" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>1</v>
@@ -2187,13 +2192,13 @@
     </row>
     <row r="61" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B61" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>1</v>
@@ -2207,13 +2212,13 @@
     </row>
     <row r="62" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>1</v>
@@ -2227,13 +2232,13 @@
     </row>
     <row r="63" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>1</v>
@@ -2247,13 +2252,13 @@
     </row>
     <row r="64" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B64" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>1</v>
@@ -2273,7 +2278,7 @@
         <v>27</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>1</v>
@@ -2293,7 +2298,7 @@
         <v>26</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>1</v>
@@ -2313,7 +2318,7 @@
         <v>28</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>1</v>
@@ -2333,7 +2338,7 @@
         <v>30</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>1</v>
@@ -2353,7 +2358,7 @@
         <v>36</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>1</v>
@@ -2370,10 +2375,10 @@
         <v>42</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>1</v>
@@ -2393,7 +2398,7 @@
         <v>32</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>1</v>
@@ -2413,7 +2418,7 @@
         <v>22</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>1</v>
@@ -2430,10 +2435,10 @@
         <v>42</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>1</v>
@@ -2453,7 +2458,7 @@
         <v>35</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>1</v>
@@ -2473,7 +2478,7 @@
         <v>36</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>1</v>
@@ -2493,7 +2498,7 @@
         <v>26</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>1</v>
@@ -2513,7 +2518,7 @@
         <v>27</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>1</v>
@@ -2533,7 +2538,7 @@
         <v>28</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>1</v>
@@ -2553,7 +2558,7 @@
         <v>30</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>1</v>
@@ -2570,10 +2575,10 @@
         <v>43</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>1</v>
@@ -2593,7 +2598,7 @@
         <v>32</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>1</v>
@@ -2613,7 +2618,7 @@
         <v>22</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>1</v>
@@ -2630,10 +2635,10 @@
         <v>43</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>1</v>
@@ -2653,7 +2658,7 @@
         <v>35</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>1</v>
@@ -2673,7 +2678,7 @@
         <v>36</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>1</v>
@@ -2693,7 +2698,7 @@
         <v>26</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>1</v>
@@ -2713,7 +2718,7 @@
         <v>27</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>1</v>
@@ -2733,7 +2738,7 @@
         <v>28</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>1</v>
@@ -2753,7 +2758,7 @@
         <v>30</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>1</v>
@@ -2770,10 +2775,10 @@
         <v>44</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>1</v>
@@ -2793,7 +2798,7 @@
         <v>32</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>1</v>
@@ -2813,7 +2818,7 @@
         <v>22</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>1</v>
@@ -2830,10 +2835,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>1</v>
@@ -2853,7 +2858,7 @@
         <v>35</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>1</v>
@@ -2867,13 +2872,13 @@
     </row>
     <row r="95" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A95" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B95" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>1</v>
@@ -2887,13 +2892,13 @@
     </row>
     <row r="96" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A96" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B96" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>1</v>
@@ -2907,13 +2912,13 @@
     </row>
     <row r="97" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A97" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B97" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>1</v>
@@ -2927,13 +2932,13 @@
     </row>
     <row r="98" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A98" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B98" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>1</v>
@@ -2947,13 +2952,13 @@
     </row>
     <row r="99" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A99" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B99" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>1</v>
@@ -2967,13 +2972,13 @@
     </row>
     <row r="100" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A100" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B100" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>1</v>
@@ -2987,13 +2992,13 @@
     </row>
     <row r="101" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A101" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>1</v>
@@ -3007,13 +3012,13 @@
     </row>
     <row r="102" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A102" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B102" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>1</v>
@@ -3027,13 +3032,13 @@
     </row>
     <row r="103" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A103" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B103" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>1</v>
@@ -3047,13 +3052,13 @@
     </row>
     <row r="104" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A104" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B104" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>1</v>
@@ -3067,13 +3072,13 @@
     </row>
     <row r="105" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A105" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B105" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>1</v>
@@ -3087,13 +3092,13 @@
     </row>
     <row r="106" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A106" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B106" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>1</v>
@@ -3107,13 +3112,13 @@
     </row>
     <row r="107" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A107" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B107" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>1</v>
@@ -3127,13 +3132,13 @@
     </row>
     <row r="108" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A108" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>1</v>
@@ -3147,13 +3152,13 @@
     </row>
     <row r="109" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A109" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B109" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>1</v>
@@ -3167,13 +3172,13 @@
     </row>
     <row r="110" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A110" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>1</v>
@@ -3187,13 +3192,13 @@
     </row>
     <row r="111" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A111" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B111" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>1</v>
@@ -3207,13 +3212,13 @@
     </row>
     <row r="112" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A112" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B112" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>1</v>
@@ -3227,13 +3232,13 @@
     </row>
     <row r="113" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A113" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B113" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>1</v>
@@ -3247,13 +3252,13 @@
     </row>
     <row r="114" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A114" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B114" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>1</v>
@@ -3267,13 +3272,13 @@
     </row>
     <row r="115" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A115" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B115" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>1</v>
@@ -3287,13 +3292,13 @@
     </row>
     <row r="116" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A116" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>1</v>
@@ -3307,13 +3312,13 @@
     </row>
     <row r="117" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A117" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>1</v>
@@ -3327,13 +3332,13 @@
     </row>
     <row r="118" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A118" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>1</v>
@@ -3347,13 +3352,13 @@
     </row>
     <row r="119" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A119" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B119" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>1</v>
@@ -3367,13 +3372,13 @@
     </row>
     <row r="120" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A120" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B120" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>1</v>
@@ -3387,13 +3392,13 @@
     </row>
     <row r="121" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A121" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>1</v>
@@ -3407,13 +3412,13 @@
     </row>
     <row r="122" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A122" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>1</v>
@@ -3427,13 +3432,13 @@
     </row>
     <row r="123" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A123" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="C123" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>1</v>
@@ -3447,13 +3452,13 @@
     </row>
     <row r="124" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A124" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>1</v>
@@ -3467,13 +3472,13 @@
     </row>
     <row r="125" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A125" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>1</v>
@@ -3493,7 +3498,7 @@
         <v>26</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>1</v>
@@ -3513,7 +3518,7 @@
         <v>28</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>1</v>
@@ -3533,7 +3538,7 @@
         <v>27</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>1</v>
@@ -3553,7 +3558,7 @@
         <v>26</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>1</v>
@@ -3573,7 +3578,7 @@
         <v>28</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>1</v>
@@ -3593,7 +3598,7 @@
         <v>29</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>1</v>
@@ -3610,10 +3615,10 @@
         <v>46</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>1</v>
@@ -3630,10 +3635,10 @@
         <v>46</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>1</v>
@@ -3653,7 +3658,7 @@
         <v>31</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>1</v>
@@ -3670,10 +3675,10 @@
         <v>46</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>1</v>
@@ -3690,10 +3695,10 @@
         <v>46</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>1</v>
@@ -3713,7 +3718,7 @@
         <v>26</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>1</v>
@@ -3733,7 +3738,7 @@
         <v>28</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>1</v>
@@ -3747,13 +3752,13 @@
     </row>
     <row r="139" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A139" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>1</v>
@@ -3767,13 +3772,13 @@
     </row>
     <row r="140" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A140" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>1</v>
@@ -3787,13 +3792,13 @@
     </row>
     <row r="141" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A141" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>1</v>
@@ -3807,13 +3812,13 @@
     </row>
     <row r="142" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A142" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B142" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>1</v>
@@ -3827,13 +3832,13 @@
     </row>
     <row r="143" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A143" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B143" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>1</v>
@@ -3847,13 +3852,13 @@
     </row>
     <row r="144" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A144" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>1</v>
@@ -3867,13 +3872,13 @@
     </row>
     <row r="145" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A145" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>1</v>
@@ -3887,13 +3892,13 @@
     </row>
     <row r="146" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A146" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B146" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>1</v>
@@ -3907,13 +3912,13 @@
     </row>
     <row r="147" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A147" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B147" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>1</v>
@@ -3927,13 +3932,13 @@
     </row>
     <row r="148" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A148" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>1</v>
@@ -3947,13 +3952,13 @@
     </row>
     <row r="149" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A149" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>1</v>
@@ -3967,13 +3972,13 @@
     </row>
     <row r="150" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A150" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>1</v>
@@ -3987,13 +3992,13 @@
     </row>
     <row r="151" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A151" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>1</v>
@@ -4007,13 +4012,13 @@
     </row>
     <row r="152" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A152" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B152" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>1</v>
@@ -4027,13 +4032,13 @@
     </row>
     <row r="153" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A153" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B153" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>1</v>
@@ -4047,13 +4052,13 @@
     </row>
     <row r="154" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A154" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B154" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>1</v>
@@ -4067,13 +4072,13 @@
     </row>
     <row r="155" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A155" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B155" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>1</v>
@@ -4087,13 +4092,13 @@
     </row>
     <row r="156" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A156" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B156" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>1</v>
@@ -4107,13 +4112,13 @@
     </row>
     <row r="157" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A157" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>1</v>
@@ -4127,13 +4132,13 @@
     </row>
     <row r="158" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A158" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B158" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B158" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="C158" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>1</v>
@@ -4147,13 +4152,13 @@
     </row>
     <row r="159" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A159" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B159" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>1</v>
@@ -4167,13 +4172,13 @@
     </row>
     <row r="160" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A160" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B160" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>1</v>
@@ -4187,13 +4192,13 @@
     </row>
     <row r="161" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A161" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B161" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>1</v>
@@ -4207,13 +4212,13 @@
     </row>
     <row r="162" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A162" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>1</v>
@@ -4227,13 +4232,13 @@
     </row>
     <row r="163" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A163" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>1</v>
@@ -4247,13 +4252,13 @@
     </row>
     <row r="164" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A164" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>1</v>
@@ -4267,13 +4272,13 @@
     </row>
     <row r="165" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A165" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>1</v>
@@ -4293,7 +4298,7 @@
         <v>26</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>1</v>
@@ -4310,10 +4315,10 @@
         <v>48</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>1</v>
@@ -4330,10 +4335,10 @@
         <v>48</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>1</v>
@@ -4350,10 +4355,10 @@
         <v>48</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>1</v>
@@ -4370,10 +4375,10 @@
         <v>48</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>1</v>
@@ -4390,10 +4395,10 @@
         <v>48</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>1</v>
@@ -4410,10 +4415,10 @@
         <v>48</v>
       </c>
       <c r="B172" s="21" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>1</v>
@@ -4430,10 +4435,10 @@
         <v>48</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>1</v>
@@ -4450,10 +4455,10 @@
         <v>48</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>1</v>
@@ -4467,13 +4472,13 @@
     </row>
     <row r="175" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A175" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D175" s="10" t="s">
         <v>1</v>
@@ -4482,18 +4487,18 @@
         <v>18</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A176" s="21" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D176" s="10" t="s">
         <v>1</v>
@@ -4507,13 +4512,13 @@
     </row>
     <row r="177" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A177" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>1</v>
@@ -4522,18 +4527,18 @@
         <v>18</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A178" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>1</v>
@@ -4547,13 +4552,13 @@
     </row>
     <row r="179" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A179" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>1</v>
@@ -4567,13 +4572,13 @@
     </row>
     <row r="180" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A180" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>1</v>
@@ -4587,13 +4592,13 @@
     </row>
     <row r="181" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A181" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B181" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B181" s="21" t="s">
-        <v>146</v>
-      </c>
       <c r="C181" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>1</v>
@@ -4607,13 +4612,13 @@
     </row>
     <row r="182" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A182" s="21" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="B182" s="21" t="s">
         <v>144</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>1</v>
@@ -4622,18 +4627,18 @@
         <v>18</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A183" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>1</v>
@@ -4642,18 +4647,18 @@
         <v>18</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A184" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>1</v>
@@ -4667,13 +4672,13 @@
     </row>
     <row r="185" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A185" s="21" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>1</v>
@@ -4687,13 +4692,13 @@
     </row>
     <row r="186" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A186" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>1</v>
@@ -4710,10 +4715,10 @@
         <v>51</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D187" s="10" t="s">
         <v>1</v>
@@ -4727,13 +4732,13 @@
     </row>
     <row r="188" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A188" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>1</v>
@@ -4750,10 +4755,10 @@
         <v>52</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>1</v>
@@ -4770,10 +4775,10 @@
         <v>52</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D190" s="10" t="s">
         <v>1</v>
@@ -4790,10 +4795,10 @@
         <v>52</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>1</v>
@@ -4807,13 +4812,13 @@
     </row>
     <row r="192" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A192" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>1</v>
@@ -4830,10 +4835,10 @@
         <v>53</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>1</v>
@@ -4842,7 +4847,7 @@
         <v>18</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -4850,10 +4855,10 @@
         <v>53</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>1</v>
@@ -4862,7 +4867,7 @@
         <v>18</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -4870,10 +4875,10 @@
         <v>53</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>1</v>
@@ -4882,7 +4887,7 @@
         <v>18</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -4890,10 +4895,10 @@
         <v>53</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>1</v>
@@ -4902,7 +4907,7 @@
         <v>18</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -4910,10 +4915,10 @@
         <v>53</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D197" s="10" t="s">
         <v>1</v>
@@ -4922,7 +4927,7 @@
         <v>18</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -4930,10 +4935,10 @@
         <v>53</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>1</v>
@@ -4942,7 +4947,7 @@
         <v>18</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -4950,10 +4955,10 @@
         <v>53</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D199" s="10" t="s">
         <v>1</v>
@@ -4962,7 +4967,7 @@
         <v>18</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -4970,10 +4975,10 @@
         <v>53</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D200" s="10" t="s">
         <v>1</v>
@@ -4987,13 +4992,13 @@
     </row>
     <row r="201" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A201" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D201" s="10" t="s">
         <v>1</v>
@@ -5010,10 +5015,10 @@
         <v>54</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>1</v>
@@ -5027,13 +5032,13 @@
     </row>
     <row r="203" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A203" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>1</v>
@@ -5050,10 +5055,10 @@
         <v>55</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>1</v>
@@ -5067,13 +5072,13 @@
     </row>
     <row r="205" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A205" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>1</v>
@@ -5090,10 +5095,10 @@
         <v>56</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>1</v>
@@ -5107,13 +5112,13 @@
     </row>
     <row r="207" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A207" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D207" s="10" t="s">
         <v>1</v>
@@ -5127,13 +5132,13 @@
     </row>
     <row r="208" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A208" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>1</v>
@@ -5150,10 +5155,10 @@
         <v>58</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>1</v>
@@ -5162,7 +5167,7 @@
         <v>18</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -5170,10 +5175,10 @@
         <v>58</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>1</v>
@@ -5182,7 +5187,7 @@
         <v>18</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -5190,10 +5195,10 @@
         <v>58</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D211" s="10" t="s">
         <v>1</v>
@@ -5202,7 +5207,7 @@
         <v>18</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -5210,10 +5215,10 @@
         <v>58</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D212" s="10" t="s">
         <v>1</v>
@@ -5222,7 +5227,7 @@
         <v>18</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -5230,10 +5235,10 @@
         <v>58</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D213" s="10" t="s">
         <v>1</v>
@@ -5242,7 +5247,7 @@
         <v>18</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -5250,10 +5255,10 @@
         <v>58</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D214" s="10" t="s">
         <v>1</v>
@@ -5262,7 +5267,7 @@
         <v>18</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -5270,10 +5275,10 @@
         <v>58</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>1</v>
@@ -5282,7 +5287,7 @@
         <v>18</v>
       </c>
       <c r="F215" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -5290,10 +5295,10 @@
         <v>58</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>1</v>
@@ -5302,7 +5307,7 @@
         <v>18</v>
       </c>
       <c r="F216" s="18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -5310,10 +5315,10 @@
         <v>58</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>1</v>
@@ -5327,13 +5332,13 @@
     </row>
     <row r="218" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A218" s="21" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D218" s="10" t="s">
         <v>1</v>
@@ -5342,18 +5347,18 @@
         <v>18</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A219" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>1</v>
@@ -5367,13 +5372,13 @@
     </row>
     <row r="220" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A220" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D220" s="10" t="s">
         <v>1</v>
@@ -5382,18 +5387,18 @@
         <v>18</v>
       </c>
       <c r="F220" s="18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A221" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>1</v>
@@ -5402,18 +5407,18 @@
         <v>18</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A222" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>1</v>
@@ -5427,13 +5432,13 @@
     </row>
     <row r="223" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A223" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D223" s="10" t="s">
         <v>1</v>
@@ -5442,18 +5447,18 @@
         <v>18</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A224" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>1</v>
@@ -5467,13 +5472,13 @@
     </row>
     <row r="225" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A225" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>1</v>
@@ -5487,13 +5492,13 @@
     </row>
     <row r="226" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A226" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D226" s="10" t="s">
         <v>1</v>
@@ -5507,13 +5512,13 @@
     </row>
     <row r="227" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A227" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>1</v>
@@ -5527,13 +5532,13 @@
     </row>
     <row r="228" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A228" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>1</v>
@@ -5542,18 +5547,18 @@
         <v>18</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A229" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D229" s="10" t="s">
         <v>1</v>
@@ -5567,13 +5572,13 @@
     </row>
     <row r="230" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A230" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D230" s="10" t="s">
         <v>1</v>
@@ -5582,18 +5587,18 @@
         <v>18</v>
       </c>
       <c r="F230" s="18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A231" s="21" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D231" s="10" t="s">
         <v>1</v>
@@ -5610,10 +5615,10 @@
         <v>59</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D232" s="10" t="s">
         <v>1</v>
@@ -5630,10 +5635,10 @@
         <v>59</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D233" s="10" t="s">
         <v>1</v>
@@ -5642,7 +5647,7 @@
         <v>18</v>
       </c>
       <c r="F233" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -5650,10 +5655,10 @@
         <v>59</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D234" s="10" t="s">
         <v>1</v>
@@ -5667,13 +5672,13 @@
     </row>
     <row r="235" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A235" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D235" s="10" t="s">
         <v>1</v>
@@ -5690,10 +5695,10 @@
         <v>60</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D236" s="10" t="s">
         <v>1</v>
@@ -5702,7 +5707,7 @@
         <v>18</v>
       </c>
       <c r="F236" s="18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="237" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -5710,10 +5715,10 @@
         <v>60</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D237" s="10" t="s">
         <v>1</v>
@@ -5730,10 +5735,10 @@
         <v>60</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D238" s="10" t="s">
         <v>1</v>
@@ -5750,10 +5755,10 @@
         <v>60</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D239" s="10" t="s">
         <v>1</v>
@@ -5770,10 +5775,10 @@
         <v>60</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D240" s="10" t="s">
         <v>1</v>
@@ -5790,10 +5795,10 @@
         <v>60</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D241" s="10" t="s">
         <v>1</v>
@@ -5810,10 +5815,10 @@
         <v>60</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D242" s="10" t="s">
         <v>1</v>
@@ -5830,10 +5835,10 @@
         <v>60</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D243" s="10" t="s">
         <v>1</v>
@@ -5850,10 +5855,10 @@
         <v>60</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D244" s="10" t="s">
         <v>1</v>
@@ -5870,10 +5875,10 @@
         <v>60</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D245" s="10" t="s">
         <v>1</v>
@@ -5887,13 +5892,13 @@
     </row>
     <row r="246" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A246" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D246" s="10" t="s">
         <v>1</v>
@@ -5910,10 +5915,10 @@
         <v>61</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D247" s="10" t="s">
         <v>1</v>
@@ -5930,10 +5935,10 @@
         <v>61</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D248" s="10" t="s">
         <v>1</v>
@@ -5950,10 +5955,10 @@
         <v>61</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D249" s="10" t="s">
         <v>1</v>
@@ -5970,10 +5975,10 @@
         <v>61</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D250" s="10" t="s">
         <v>1</v>
@@ -5982,7 +5987,7 @@
         <v>18</v>
       </c>
       <c r="F250" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -5990,10 +5995,10 @@
         <v>61</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D251" s="10" t="s">
         <v>1</v>
@@ -6010,10 +6015,10 @@
         <v>61</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>1</v>
@@ -6030,10 +6035,10 @@
         <v>61</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D253" s="10" t="s">
         <v>1</v>
@@ -6050,10 +6055,10 @@
         <v>61</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>1</v>
@@ -6070,10 +6075,10 @@
         <v>61</v>
       </c>
       <c r="B255" s="21" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>1</v>
@@ -6090,10 +6095,10 @@
         <v>61</v>
       </c>
       <c r="B256" s="21" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D256" s="10" t="s">
         <v>1</v>
@@ -6107,13 +6112,13 @@
     </row>
     <row r="257" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A257" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B257" s="21" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D257" s="10" t="s">
         <v>1</v>
@@ -6122,7 +6127,7 @@
         <v>18</v>
       </c>
       <c r="F257" s="18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -6130,10 +6135,10 @@
         <v>62</v>
       </c>
       <c r="B258" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>1</v>
@@ -6142,7 +6147,7 @@
         <v>18</v>
       </c>
       <c r="F258" s="18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -6150,10 +6155,10 @@
         <v>62</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D259" s="10" t="s">
         <v>1</v>
@@ -6162,7 +6167,7 @@
         <v>18</v>
       </c>
       <c r="F259" s="18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -6170,10 +6175,10 @@
         <v>62</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D260" s="10" t="s">
         <v>1</v>
@@ -6190,10 +6195,10 @@
         <v>62</v>
       </c>
       <c r="B261" s="21" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D261" s="10" t="s">
         <v>1</v>
@@ -6210,10 +6215,10 @@
         <v>62</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D262" s="10" t="s">
         <v>1</v>
@@ -6230,10 +6235,10 @@
         <v>62</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D263" s="10" t="s">
         <v>1</v>
@@ -6250,10 +6255,10 @@
         <v>62</v>
       </c>
       <c r="B264" s="21" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D264" s="10" t="s">
         <v>1</v>
@@ -6270,10 +6275,10 @@
         <v>62</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D265" s="10" t="s">
         <v>1</v>
@@ -6290,10 +6295,10 @@
         <v>62</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D266" s="10" t="s">
         <v>1</v>
@@ -6302,7 +6307,7 @@
         <v>18</v>
       </c>
       <c r="F266" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -6310,10 +6315,10 @@
         <v>62</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D267" s="10" t="s">
         <v>1</v>
@@ -6330,10 +6335,10 @@
         <v>62</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D268" s="10" t="s">
         <v>1</v>
@@ -6347,13 +6352,13 @@
     </row>
     <row r="269" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A269" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D269" s="10" t="s">
         <v>1</v>
@@ -6362,7 +6367,7 @@
         <v>18</v>
       </c>
       <c r="F269" s="18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -6370,10 +6375,10 @@
         <v>63</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D270" s="10" t="s">
         <v>1</v>
@@ -6390,10 +6395,10 @@
         <v>63</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D271" s="10" t="s">
         <v>1</v>
@@ -6410,10 +6415,10 @@
         <v>63</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D272" s="10" t="s">
         <v>1</v>
@@ -6430,10 +6435,10 @@
         <v>63</v>
       </c>
       <c r="B273" s="21" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D273" s="10" t="s">
         <v>1</v>
@@ -6450,10 +6455,10 @@
         <v>63</v>
       </c>
       <c r="B274" s="21" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D274" s="10" t="s">
         <v>1</v>
@@ -6470,10 +6475,10 @@
         <v>63</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D275" s="10" t="s">
         <v>1</v>
@@ -6490,10 +6495,10 @@
         <v>63</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D276" s="10" t="s">
         <v>1</v>
@@ -6510,10 +6515,10 @@
         <v>63</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D277" s="10" t="s">
         <v>1</v>
@@ -6530,10 +6535,10 @@
         <v>63</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D278" s="10" t="s">
         <v>1</v>
@@ -6550,10 +6555,10 @@
         <v>63</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D279" s="10" t="s">
         <v>1</v>
@@ -6562,18 +6567,18 @@
         <v>18</v>
       </c>
       <c r="F279" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A280" s="21" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D280" s="10" t="s">
         <v>1</v>
@@ -6590,10 +6595,10 @@
         <v>41</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D281" s="10" t="s">
         <v>1</v>
@@ -6610,10 +6615,10 @@
         <v>41</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D282" s="10" t="s">
         <v>1</v>
@@ -6630,10 +6635,10 @@
         <v>41</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D283" s="10" t="s">
         <v>1</v>
@@ -6650,10 +6655,10 @@
         <v>41</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D284" s="10" t="s">
         <v>1</v>
@@ -6662,7 +6667,7 @@
         <v>18</v>
       </c>
       <c r="F284" s="18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -6670,10 +6675,10 @@
         <v>41</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D285" s="10" t="s">
         <v>1</v>
@@ -6690,10 +6695,10 @@
         <v>41</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D286" s="10" t="s">
         <v>1</v>
@@ -6710,10 +6715,10 @@
         <v>41</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D287" s="10" t="s">
         <v>1</v>
@@ -6733,7 +6738,7 @@
         <v>140</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D288" s="10" t="s">
         <v>1</v>
@@ -6753,7 +6758,7 @@
         <v>141</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D289" s="10" t="s">
         <v>1</v>
@@ -6770,10 +6775,10 @@
         <v>41</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D290" s="10" t="s">
         <v>1</v>
@@ -6787,13 +6792,13 @@
     </row>
     <row r="291" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A291" s="21" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="B291" s="21" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D291" s="10" t="s">
         <v>1</v>
@@ -6807,13 +6812,13 @@
     </row>
     <row r="292" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A292" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B292" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D292" s="10" t="s">
         <v>1</v>
@@ -6827,13 +6832,13 @@
     </row>
     <row r="293" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A293" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D293" s="10" t="s">
         <v>1</v>
@@ -6847,13 +6852,13 @@
     </row>
     <row r="294" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A294" s="21" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D294" s="10" t="s">
         <v>1</v>
@@ -6870,10 +6875,10 @@
         <v>64</v>
       </c>
       <c r="B295" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D295" s="10" t="s">
         <v>1</v>
@@ -6890,10 +6895,10 @@
         <v>64</v>
       </c>
       <c r="B296" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D296" s="10" t="s">
         <v>1</v>
@@ -6910,10 +6915,10 @@
         <v>64</v>
       </c>
       <c r="B297" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D297" s="10" t="s">
         <v>1</v>
@@ -6930,10 +6935,10 @@
         <v>64</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D298" s="10" t="s">
         <v>1</v>
@@ -6950,10 +6955,10 @@
         <v>64</v>
       </c>
       <c r="B299" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D299" s="10" t="s">
         <v>1</v>
@@ -6970,10 +6975,10 @@
         <v>64</v>
       </c>
       <c r="B300" s="21" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D300" s="10" t="s">
         <v>1</v>
@@ -6990,10 +6995,10 @@
         <v>64</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D301" s="10" t="s">
         <v>1</v>
@@ -7002,7 +7007,7 @@
         <v>18</v>
       </c>
       <c r="F301" s="18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -7010,10 +7015,10 @@
         <v>64</v>
       </c>
       <c r="B302" s="21" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D302" s="10" t="s">
         <v>1</v>
@@ -7030,10 +7035,10 @@
         <v>64</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D303" s="10" t="s">
         <v>1</v>
@@ -7042,18 +7047,18 @@
         <v>18</v>
       </c>
       <c r="F303" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A304" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B304" s="21" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D304" s="10" t="s">
         <v>1</v>
@@ -7062,7 +7067,7 @@
         <v>18</v>
       </c>
       <c r="F304" s="18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="305" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -7070,10 +7075,10 @@
         <v>64</v>
       </c>
       <c r="B305" s="21" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D305" s="10" t="s">
         <v>1</v>
@@ -7090,10 +7095,10 @@
         <v>64</v>
       </c>
       <c r="B306" s="21" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D306" s="10" t="s">
         <v>1</v>
@@ -7107,13 +7112,13 @@
     </row>
     <row r="307" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B307" s="21" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D307" s="10" t="s">
         <v>1</v>
@@ -7130,10 +7135,10 @@
         <v>65</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D308" s="10" t="s">
         <v>1</v>
@@ -7150,10 +7155,10 @@
         <v>65</v>
       </c>
       <c r="B309" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D309" s="10" t="s">
         <v>1</v>
@@ -7170,10 +7175,10 @@
         <v>65</v>
       </c>
       <c r="B310" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D310" s="10" t="s">
         <v>1</v>
@@ -7190,10 +7195,10 @@
         <v>65</v>
       </c>
       <c r="B311" s="21" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D311" s="10" t="s">
         <v>1</v>
@@ -7210,10 +7215,10 @@
         <v>65</v>
       </c>
       <c r="B312" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D312" s="10" t="s">
         <v>1</v>
@@ -7230,10 +7235,10 @@
         <v>65</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D313" s="10" t="s">
         <v>1</v>
@@ -7250,10 +7255,10 @@
         <v>65</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D314" s="10" t="s">
         <v>1</v>
@@ -7270,10 +7275,10 @@
         <v>65</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D315" s="10" t="s">
         <v>1</v>
@@ -7290,10 +7295,10 @@
         <v>65</v>
       </c>
       <c r="B316" s="21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D316" s="10" t="s">
         <v>1</v>
@@ -7307,62 +7312,62 @@
     </row>
     <row r="317" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A317" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B317" s="21" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="C317" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D317" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E317" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F317" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A318" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B318" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C318" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D318" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E318" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F318" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A319" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B319" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C319" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D317" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E317" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F317" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B318" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C318" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D318" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E318" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F318" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="A319" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B319" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C319" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D319" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E319" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F319" s="15" t="s">
-        <v>2</v>
+      <c r="D319" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E319" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F319" s="18" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="320" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
@@ -7370,10 +7375,10 @@
         <v>40</v>
       </c>
       <c r="B320" s="21" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D320" s="10" t="s">
         <v>1</v>
@@ -7390,10 +7395,10 @@
         <v>40</v>
       </c>
       <c r="B321" s="21" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D321" s="10" t="s">
         <v>1</v>
@@ -7407,13 +7412,13 @@
     </row>
     <row r="322" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A322" s="21" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B322" s="21" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="C322" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D322" s="10" t="s">
         <v>1</v>
@@ -7427,13 +7432,13 @@
     </row>
     <row r="323" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A323" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B323" s="21" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D323" s="10" t="s">
         <v>1</v>
@@ -7447,13 +7452,13 @@
     </row>
     <row r="324" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A324" s="21" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="B324" s="21" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D324" s="10" t="s">
         <v>1</v>
@@ -7465,25 +7470,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:6" s="9" customFormat="1" ht="14" x14ac:dyDescent="0.3">
-      <c r="A325" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B325" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C325" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D325" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E325" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F325" s="18" t="s">
-        <v>8</v>
-      </c>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F325" s="6"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F326" s="6"/>
@@ -8463,18 +8451,15 @@
     <row r="651" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F651" s="6"/>
     </row>
-    <row r="652" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F652" s="6"/>
-    </row>
   </sheetData>
-  <sortState ref="B309:B317">
-    <sortCondition ref="B309:B317"/>
+  <sortState ref="B308:B316">
+    <sortCondition ref="B308:B316"/>
   </sortState>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value!" error="Please select value from drop-down box." sqref="D56:D318 D40:D54 D8:D38 D320:D325" xr:uid="{FD9D3660-3F34-410E-B6C3-95D277755592}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value!" error="Please select value from drop-down box." sqref="D40:D54 D8:D38 D319:D324 D56:D317" xr:uid="{FD9D3660-3F34-410E-B6C3-95D277755592}">
       <formula1>"Critical,High,Medium"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E56:E318 E40:E54 E8:E38 E320:E325" xr:uid="{CDEACD67-0FE8-4D1D-B0B8-E2D5A4AA1E47}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E40:E54 E8:E38 E319:E324 E56:E317" xr:uid="{CDEACD67-0FE8-4D1D-B0B8-E2D5A4AA1E47}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B38" xr:uid="{6D2DF9ED-FCC8-40AE-B870-2D18616F7BE0}">
@@ -8483,7 +8468,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C38" xr:uid="{08E70311-5344-40A5-9A3B-2235269CCC7F}">
       <formula1>"1,2,3a,3b"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value!" error="Please select value from drop-down box." sqref="D319:D1048576" xr:uid="{A59BB96D-AE9C-4D01-B73D-A3CC40BD2F20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value!" error="Please select value from drop-down box." sqref="D318:D1048576" xr:uid="{A59BB96D-AE9C-4D01-B73D-A3CC40BD2F20}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
